--- a/Bäck/2.4.2..xlsx
+++ b/Bäck/2.4.2..xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WEBSHOP TESZT\webshop\Bäck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Documents\webshop\webshop\Bäck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Tesztlépés leírása</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>2.4.2.</t>
+  </si>
+  <si>
+    <t>2019. 04. 08. 16:02</t>
+  </si>
+  <si>
+    <t>Süttő Patrícia</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -379,9 +388,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -409,6 +415,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -418,15 +430,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,129 +750,135 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.75" style="1"/>
+    <col min="7" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>43563</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="13"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -883,21 +898,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -908,10 +925,12 @@
         <v>24</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -922,10 +941,12 @@
         <v>29</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -936,10 +957,12 @@
         <v>31</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -950,10 +973,12 @@
         <v>33</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -961,14 +986,14 @@
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="20"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="20"/>
       <c r="C20" s="7"/>
@@ -976,7 +1001,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="20"/>
       <c r="C21" s="7"/>
@@ -984,7 +1009,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="20"/>
       <c r="C22" s="7"/>
@@ -992,7 +1017,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>
